--- a/app接口/app/山海万象.xlsx
+++ b/app接口/app/山海万象.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\notes\app接口\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\notes\app接口\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD16C8E8-95B2-4A85-A8A2-2B76EDA8366F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD697F4-A7AB-4522-A5F8-7814C9D10BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1128" yWindow="492" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="板块刷新页" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>接口序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>news后的数字id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>okhttp/4.7.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +624,7 @@
         <v>16</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N2" s="5"/>
     </row>
@@ -659,7 +663,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
